--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\II-2023\Estadistica I, CA0303\Proyecto\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD59516C-47D1-4E0E-A883-6283691B1274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89644E-D120-4026-81D7-6AD99748B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Coeficientes" sheetId="2" r:id="rId1"/>
+    <sheet name="Intervalos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>Variables</t>
   </si>
@@ -56,13 +57,28 @@
   </si>
   <si>
     <t>Winsorized</t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>CI sup</t>
+  </si>
+  <si>
+    <t>CI inf</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>America</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +101,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +119,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,30 +165,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A3D99-E3E8-480C-B9D5-0E16CCA5597F}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,74 +535,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.67261471288966368</v>
+        <v>0.67261471288966401</v>
       </c>
       <c r="C3" s="1">
         <v>0.59221061681626008</v>
@@ -591,7 +639,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -613,7 +661,7 @@
         <v>0.21994729508234981</v>
       </c>
       <c r="H4" s="1">
-        <v>8.2644497034791875E-2</v>
+        <v>8.2644497034791903E-2</v>
       </c>
       <c r="I4" s="1">
         <v>5.337347798716513E-2</v>
@@ -673,43 +721,43 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>5.2433727942119243E-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>1.9041344353190812E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>5.8689385448827562E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>-0.32177939917416548</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>-9.7712514486671925E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>-0.13735944608007911</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>-0.30230381685068158</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>-0.32598878093699318</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>-0.39300565617919792</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>3.1143326567112978E-3</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>-4.584352131765191E-2</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>-8.8326627037294561E-2</v>
       </c>
     </row>
@@ -723,4 +771,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9E104-E558-4ED6-9E6E-95256949977C}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.80685027854992697</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.47233238877968098</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.75840055231032411</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.35371919235120652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.76537808452999556</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.38353969033487628</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.75125558221205513</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.33910446681988721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.93609752499128718</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.80073835272318683</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.93654915853719933</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.79557797887738069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.34072844963968851</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-0.24487420540846219</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.31889729710753589</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-0.28427958372198447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.92356929980424718</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.61284627876751707</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.95073927644491463</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.72281856846049786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.43531783015390318</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.40771735271253517</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5250347547853097</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.32982382187253401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.96549523338556098</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.80822578347438423</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.97549606734934124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.85351950079911432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.1155062376519774</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-0.65458851507736582</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.34954269569668739</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-0.50869920713538308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.94878143700149464</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.77607650118101046</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.93175974063811917</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.69851699299237813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.44209635106396777</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.29967870578965777</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.42764655770496102</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.33652138303826901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.95242688656525143</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.79069389504395471</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.9497529765877325</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.77071072106347693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>7.9776907168285865E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-0.60693420326995207</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6.5162757985975969E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.63030509196668871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.92534058835245547</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.72632668182977755</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.90770918164705994</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.65812012348342663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4.4423979439358927E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-0.57809685116562859</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.1085262610174349</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.54827485091831007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.97980542782795754</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.91993704542502652</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.97949711446971643</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.91544467785859562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.34092670254579099</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-0.33541034074142018</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.30639104556114072</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.38703595414753339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\II-2023\Estadistica I, CA0303\Proyecto\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89644E-D120-4026-81D7-6AD99748B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8357E9-1114-4433-94BB-803912F7E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coeficientes" sheetId="2" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -190,6 +190,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,9 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -513,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A3D99-E3E8-480C-B9D5-0E16CCA5597F}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +531,7 @@
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -535,26 +540,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -611,7 +616,7 @@
         <v>0.55992763636578846</v>
       </c>
       <c r="E3" s="1">
-        <v>0.82205465503506814</v>
+        <v>0.74387256504180166</v>
       </c>
       <c r="F3" s="1">
         <v>0.88015842214408824</v>
@@ -619,7 +624,7 @@
       <c r="G3" s="1">
         <v>0.88104588621517899</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <v>0.89113846414221187</v>
       </c>
       <c r="I3" s="1">
@@ -652,7 +657,7 @@
         <v>0.61628662961874103</v>
       </c>
       <c r="E4" s="1">
-        <v>1.6782858874799911E-2</v>
+        <v>0.28867533927208539</v>
       </c>
       <c r="F4" s="1">
         <v>0.1197401911628581</v>
@@ -660,8 +665,8 @@
       <c r="G4" s="1">
         <v>0.21994729508234981</v>
       </c>
-      <c r="H4" s="1">
-        <v>8.2644497034791903E-2</v>
+      <c r="H4" s="18">
+        <v>8.2644497034791875E-2</v>
       </c>
       <c r="I4" s="1">
         <v>5.337347798716513E-2</v>
@@ -693,7 +698,7 @@
         <v>0.88249214109846885</v>
       </c>
       <c r="E5" s="1">
-        <v>0.91727135462482312</v>
+        <v>0.91292810918966205</v>
       </c>
       <c r="F5" s="1">
         <v>0.93928272596147655</v>
@@ -701,7 +706,7 @@
       <c r="G5" s="1">
         <v>0.92099599355370698</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="18">
         <v>0.89867329702551202</v>
       </c>
       <c r="I5" s="1">
@@ -734,7 +739,7 @@
         <v>5.8689385448827562E-2</v>
       </c>
       <c r="E6" s="7">
-        <v>-0.32177939917416548</v>
+        <v>-0.13975577396468239</v>
       </c>
       <c r="F6" s="7">
         <v>-9.7712514486671925E-2</v>
@@ -775,351 +780,356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9E104-E558-4ED6-9E6E-95256949977C}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10">
+        <v>0.47233238877968098</v>
+      </c>
+      <c r="D3" s="10">
         <v>0.80685027854992697</v>
       </c>
-      <c r="D3" s="10">
-        <v>0.47233238877968098</v>
-      </c>
       <c r="E3" s="10">
+        <v>0.35371919235120652</v>
+      </c>
+      <c r="F3" s="10">
         <v>0.75840055231032411</v>
       </c>
-      <c r="F3" s="10">
-        <v>0.35371919235120652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
+        <v>0.38353969033487628</v>
+      </c>
+      <c r="D4" s="12">
         <v>0.76537808452999556</v>
       </c>
-      <c r="D4" s="16">
-        <v>0.38353969033487628</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
+        <v>0.33910446681988721</v>
+      </c>
+      <c r="F4" s="12">
         <v>0.75125558221205513</v>
       </c>
-      <c r="F4" s="16">
-        <v>0.33910446681988721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>0.80073835272318683</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.93609752499128718</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.80073835272318683</v>
-      </c>
       <c r="E5" s="1">
+        <v>0.79557797887738069</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.93654915853719933</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.79557797887738069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.34072844963968851</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-0.24487420540846219</v>
+      <c r="C6" s="1">
+        <v>-0.24831728029450209</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.34396479162122578</v>
       </c>
       <c r="E6" s="7">
+        <v>-0.28427958372198447</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.31889729710753589</v>
       </c>
-      <c r="F6" s="7">
-        <v>-0.28427958372198447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="10">
+        <v>0.61284627876751707</v>
+      </c>
+      <c r="D7" s="10">
         <v>0.92356929980424718</v>
       </c>
-      <c r="D7" s="10">
-        <v>0.61284627876751707</v>
-      </c>
       <c r="E7" s="10">
+        <v>0.72281856846049786</v>
+      </c>
+      <c r="F7" s="10">
         <v>0.95073927644491463</v>
       </c>
-      <c r="F7" s="10">
-        <v>0.72281856846049786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2">
+        <v>-0.40771735271253517</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.43531783015390318</v>
       </c>
-      <c r="D8" s="2">
-        <v>-0.40771735271253517</v>
-      </c>
       <c r="E8" s="2">
+        <v>-0.32982382187253401</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.5250347547853097</v>
       </c>
-      <c r="F8" s="2">
-        <v>-0.32982382187253401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
+        <v>0.80822578347438423</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.96549523338556098</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.80822578347438423</v>
-      </c>
       <c r="E9" s="1">
+        <v>0.85351950079911432</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.97549606734934124</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.85351950079911432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7">
+        <v>-0.65458851507736582</v>
+      </c>
+      <c r="D10" s="7">
         <v>0.1155062376519774</v>
       </c>
-      <c r="D10" s="7">
-        <v>-0.65458851507736582</v>
-      </c>
       <c r="E10" s="7">
+        <v>-0.50869920713538308</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.34954269569668739</v>
       </c>
-      <c r="F10" s="7">
-        <v>-0.50869920713538308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
-        <v>0.94878143700149464</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.77607650118101046</v>
+      <c r="C11" s="1">
+        <v>0.45984742391455408</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.88982206190903723</v>
       </c>
       <c r="E11" s="10">
+        <v>0.69851699299237813</v>
+      </c>
+      <c r="F11" s="10">
         <v>0.93175974063811917</v>
       </c>
-      <c r="F11" s="10">
-        <v>0.69851699299237813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>0.44209635106396777</v>
+        <v>-0.1633784599932166</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.29967870578965777</v>
+        <v>0.64054477103136831</v>
       </c>
       <c r="E12" s="2">
+        <v>-0.33652138303826901</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.42764655770496102</v>
       </c>
-      <c r="F12" s="2">
-        <v>-0.33652138303826901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.95242688656525143</v>
+        <v>0.79425422184798122</v>
       </c>
       <c r="D13" s="1">
-        <v>0.79069389504395471</v>
+        <v>0.96450518820378728</v>
       </c>
       <c r="E13" s="1">
+        <v>0.77071072106347693</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.9497529765877325</v>
       </c>
-      <c r="F13" s="1">
-        <v>0.77071072106347693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
-        <v>7.9776907168285865E-2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-0.60693420326995207</v>
+      <c r="C14" s="1">
+        <v>-0.54836923755730416</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.32273163394476612</v>
       </c>
       <c r="E14" s="7">
+        <v>-0.63030509196668871</v>
+      </c>
+      <c r="F14" s="7">
         <v>6.5162757985975969E-2</v>
       </c>
-      <c r="F14" s="7">
-        <v>-0.63030509196668871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="10">
+        <v>0.72632668182977755</v>
+      </c>
+      <c r="D15" s="10">
         <v>0.92534058835245547</v>
       </c>
-      <c r="D15" s="10">
-        <v>0.72632668182977755</v>
-      </c>
       <c r="E15" s="10">
+        <v>0.65812012348342663</v>
+      </c>
+      <c r="F15" s="10">
         <v>0.90770918164705994</v>
       </c>
-      <c r="F15" s="10">
-        <v>0.65812012348342663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2">
+        <v>-0.57809685116562859</v>
+      </c>
+      <c r="D16" s="2">
         <v>4.4423979439358927E-2</v>
       </c>
-      <c r="D16" s="2">
-        <v>-0.57809685116562859</v>
-      </c>
       <c r="E16" s="2">
+        <v>-0.54827485091831007</v>
+      </c>
+      <c r="F16" s="2">
         <v>0.1085262610174349</v>
       </c>
-      <c r="F16" s="2">
-        <v>-0.54827485091831007</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1">
+        <v>0.91993704542502652</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.97980542782795754</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.91993704542502652</v>
-      </c>
       <c r="E17" s="1">
+        <v>0.91544467785859562</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.97949711446971643</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.91544467785859562</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="7">
+        <v>-0.33541034074142018</v>
+      </c>
+      <c r="D18" s="7">
         <v>0.34092670254579099</v>
       </c>
-      <c r="D18" s="7">
-        <v>-0.33541034074142018</v>
-      </c>
       <c r="E18" s="7">
+        <v>-0.38703595414753339</v>
+      </c>
+      <c r="F18" s="7">
         <v>0.30639104556114072</v>
-      </c>
-      <c r="F18" s="7">
-        <v>-0.38703595414753339</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,35 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\II-2023\Estadistica I, CA0303\Proyecto\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8357E9-1114-4433-94BB-803912F7E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C9FFDA-AA2A-41B0-A5C0-EC956F0DE375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coeficientes" sheetId="2" r:id="rId1"/>
     <sheet name="Intervalos" sheetId="3" r:id="rId2"/>
+    <sheet name="Bootstrap" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>IDH-EVN</t>
-  </si>
-  <si>
-    <t>IDH-Desempleo</t>
-  </si>
-  <si>
-    <t>IDH-PNB per cápita</t>
-  </si>
-  <si>
-    <t>IDH-Deflactor del PIB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>África</t>
   </si>
@@ -72,6 +58,27 @@
   </si>
   <si>
     <t>America</t>
+  </si>
+  <si>
+    <t>Winsored</t>
+  </si>
+  <si>
+    <t>EVN</t>
+  </si>
+  <si>
+    <t>Desempleo</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>PNB per cápita</t>
+  </si>
+  <si>
+    <t>Deflactor del PIB</t>
+  </si>
+  <si>
+    <t>Indicadores</t>
   </si>
 </sst>
 </file>
@@ -170,7 +177,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -190,10 +197,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -205,11 +214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -519,7 +523,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,74 +544,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>0.67261471288966401</v>
+        <v>0.67261471288966368</v>
       </c>
       <c r="C3" s="1">
         <v>0.59221061681626008</v>
@@ -645,7 +649,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0.6085641801838938</v>
@@ -665,7 +669,7 @@
       <c r="G4" s="1">
         <v>0.21994729508234981</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="1">
         <v>8.2644497034791875E-2</v>
       </c>
       <c r="I4" s="1">
@@ -686,7 +690,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>0.88602014433485965</v>
@@ -706,7 +710,7 @@
       <c r="G5" s="1">
         <v>0.92099599355370698</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="1">
         <v>0.89867329702551202</v>
       </c>
       <c r="I5" s="1">
@@ -727,10 +731,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7">
-        <v>5.2433727942119243E-2</v>
+        <v>5.1098592227693217E-2</v>
       </c>
       <c r="C6" s="7">
         <v>1.9041344353190812E-2</v>
@@ -783,7 +787,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,45 +800,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10">
         <v>0.47233238877968098</v>
@@ -851,26 +853,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11">
         <v>0.38353969033487628</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.76537808452999556</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.33910446681988721</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0.75125558221205513</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>0.80073835272318683</v>
@@ -888,7 +890,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>-0.24831728029450209</v>
@@ -905,10 +907,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10">
         <v>0.61284627876751707</v>
@@ -925,8 +927,8 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>-0.40771735271253517</v>
@@ -944,7 +946,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>0.80822578347438423</v>
@@ -962,7 +964,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>-0.65458851507736582</v>
@@ -979,10 +981,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>0.45984742391455408</v>
@@ -999,8 +1001,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
-      <c r="B12" s="13" t="s">
-        <v>2</v>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>-0.1633784599932166</v>
@@ -1018,7 +1020,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>0.79425422184798122</v>
@@ -1036,7 +1038,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>-0.54836923755730416</v>
@@ -1053,10 +1055,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15" s="10">
         <v>0.72632668182977755</v>
@@ -1073,8 +1075,8 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>-0.57809685116562859</v>
@@ -1092,7 +1094,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>0.91993704542502652</v>
@@ -1110,7 +1112,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>-0.33541034074142018</v>
@@ -1136,4 +1138,469 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420731C-1938-415E-A63A-6CFABA38842A}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.48452723711856011</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.80483772532473008</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.36389018827240138</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.7735268825271282</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.25391119463861589</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.80104970458541347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.40118250584205289</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.75737680251882966</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.33514123667750162</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.76100174862001668</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.34025660787481099</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.79371078052308297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.82170923845325472</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.93417630419790365</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.78384248731016226</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.93548545605339739</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.7504206115337998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.94951860395220389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-0.19930381567468861</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.26770413192793269</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-0.28295898575698059</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.2739417280065351</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-0.27566946004227838</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.34085204893458459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.61782920487395399</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.89293492016206599</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.71510224601019134</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.95232282056268813</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.65240681167496817</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.94987204848984919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.13684689275259099</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.6521690185453437</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.33492860285266768</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.54548560778629107</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.33335082456962228</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.58002483261265392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.82605289537070081</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.96873269106396942</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8234774989520961</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.97080155996907702</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.79586864049558248</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.97397161834791757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
+        <v>-0.54431426898467083</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.25195388281108372</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-0.55160286832707395</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.35787706605290992</v>
+      </c>
+      <c r="G10" s="7">
+        <v>-0.66459979734816743</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.41878475470182808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.77168998845746384</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.95646192966086374</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.66070099554052786</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.96035844161513817</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.57445644322604528</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.94813040460905962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.37963310557708241</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.43412959086574399</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.35748992840343641</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.431617647392255</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.42180117337840772</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.4395085654189273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.81994183805723164</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.9459926922064481</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.75863719940482</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.95193775972568662</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.74376255271613823</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.95790268328714878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-0.57420079813086711</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-2.394928996519248E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-0.64179170606968095</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7.8289489643561944E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>-0.71865890511223873</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.13332217949219169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.77906904598559601</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.91773351353840571</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.6621876868307085</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.89241458417300845</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.77438165128649727</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.94598032594595094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.58795817924729599</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.718021569224634E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.55306920998123987</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1527404569879989</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-0.57150606881917043</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.17431710222317379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.93756314663882712</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.9803719329960302</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.90285039876140583</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.97827114851749197</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.91944873219237777</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.98798356661114084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-0.38006890302312363</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.34169192299886791</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-0.39255572620075552</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.32041485171115958</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.46169196340833751</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.27086217858561112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\II-2023\Estadistica I, CA0303\Proyecto\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C9FFDA-AA2A-41B0-A5C0-EC956F0DE375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2FA70-A956-4320-9258-AEBA3B537A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coeficientes" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,37 +104,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -172,15 +151,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,11 +169,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,10 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A3D99-E3E8-480C-B9D5-0E16CCA5597F}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,107 +519,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>0.67261471288966368</v>
+        <v>0.71225608909867266</v>
       </c>
       <c r="C3" s="1">
-        <v>0.59221061681626008</v>
+        <v>0.63553399475567318</v>
       </c>
       <c r="D3" s="1">
-        <v>0.55992763636578846</v>
+        <v>0.58577734659360825</v>
       </c>
       <c r="E3" s="1">
-        <v>0.74387256504180166</v>
+        <v>0.7237878437274623</v>
       </c>
       <c r="F3" s="1">
-        <v>0.88015842214408824</v>
+        <v>0.83314849677558289</v>
       </c>
       <c r="G3" s="1">
-        <v>0.88104588621517899</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.89113846414221187</v>
+        <v>0.8195401735897383</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.85054915740573633</v>
       </c>
       <c r="I3" s="1">
-        <v>0.85325120580449865</v>
+        <v>0.83889079348452034</v>
       </c>
       <c r="J3" s="1">
-        <v>0.79223183445720091</v>
+        <v>0.80756391733284782</v>
       </c>
       <c r="K3" s="1">
-        <v>0.85459097019417751</v>
+        <v>0.86163944146024751</v>
       </c>
       <c r="L3" s="1">
-        <v>0.81839029897513849</v>
+        <v>0.84502835589124292</v>
       </c>
       <c r="M3" s="1">
-        <v>0.87538284913651276</v>
+        <v>0.87662048252221636</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -652,40 +627,40 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>0.6085641801838938</v>
+        <v>0.64660623155939012</v>
       </c>
       <c r="C4" s="1">
-        <v>0.58132104231211956</v>
+        <v>0.62566935257049971</v>
       </c>
       <c r="D4" s="1">
-        <v>0.61628662961874103</v>
+        <v>0.64854885233286375</v>
       </c>
       <c r="E4" s="1">
-        <v>0.28867533927208539</v>
+        <v>0.26292569687038719</v>
       </c>
       <c r="F4" s="1">
-        <v>0.1197401911628581</v>
+        <v>0.16087706819840561</v>
       </c>
       <c r="G4" s="1">
-        <v>0.21994729508234981</v>
+        <v>0.2227956008473925</v>
       </c>
       <c r="H4" s="1">
-        <v>8.2644497034791875E-2</v>
+        <v>-0.13475943009003141</v>
       </c>
       <c r="I4" s="1">
-        <v>5.337347798716513E-2</v>
+        <v>-0.20056741126094779</v>
       </c>
       <c r="J4" s="1">
-        <v>4.2292470446008673E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>-0.29822769805874949</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-0.24818522270055229</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-0.22708427754497751</v>
+        <v>-0.2338162418796603</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-0.34321281311765223</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.30421138038048501</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-0.29533109106610272</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -693,81 +668,81 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>0.88602014433485965</v>
+        <v>0.87957654076881109</v>
       </c>
       <c r="C5" s="1">
-        <v>0.88488023506894176</v>
+        <v>0.8895799815249763</v>
       </c>
       <c r="D5" s="1">
-        <v>0.88249214109846885</v>
+        <v>0.89835048084140212</v>
       </c>
       <c r="E5" s="1">
-        <v>0.91292810918966205</v>
+        <v>0.90338109666415978</v>
       </c>
       <c r="F5" s="1">
-        <v>0.93928272596147655</v>
+        <v>0.90613454339010058</v>
       </c>
       <c r="G5" s="1">
-        <v>0.92099599355370698</v>
+        <v>0.90280535507528692</v>
       </c>
       <c r="H5" s="1">
-        <v>0.89867329702551202</v>
+        <v>0.91233227853723953</v>
       </c>
       <c r="I5" s="1">
-        <v>0.89077470572132511</v>
+        <v>0.92811545978076415</v>
       </c>
       <c r="J5" s="1">
-        <v>0.87229499152180912</v>
+        <v>0.92323224912723156</v>
       </c>
       <c r="K5" s="1">
-        <v>0.95958500832633287</v>
+        <v>0.96933467573507204</v>
       </c>
       <c r="L5" s="1">
-        <v>0.95812959553892485</v>
+        <v>0.96391153614149916</v>
       </c>
       <c r="M5" s="1">
-        <v>0.97530863755703057</v>
+        <v>0.97283054896328436</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7">
-        <v>5.1098592227693217E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1.9041344353190812E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5.8689385448827562E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-0.13975577396468239</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-9.7712514486671925E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-0.13735944608007911</v>
-      </c>
-      <c r="H6" s="7">
-        <v>-0.30230381685068158</v>
-      </c>
-      <c r="I6" s="7">
-        <v>-0.32598878093699318</v>
-      </c>
-      <c r="J6" s="7">
-        <v>-0.39300565617919792</v>
-      </c>
-      <c r="K6" s="7">
-        <v>3.1143326567112978E-3</v>
-      </c>
-      <c r="L6" s="7">
-        <v>-4.584352131765191E-2</v>
-      </c>
-      <c r="M6" s="7">
-        <v>-8.8326627037294561E-2</v>
+      <c r="B6" s="6">
+        <v>-0.12585244377746271</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-0.23522631938058849</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-0.19058074804940581</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-0.42851557401933948</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.2907120068516364</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-0.38610891299630851</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-0.32571384894273658</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-0.50271370516235703</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-0.43239152295709921</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-0.51851565131468202</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-0.56182619466344474</v>
+      </c>
+      <c r="M6" s="6">
+        <v>-0.6535118760048112</v>
       </c>
     </row>
   </sheetData>
@@ -784,357 +759,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9E104-E558-4ED6-9E6E-95256949977C}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="10"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10">
-        <v>0.47233238877968098</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.80685027854992697</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.35371919235120652</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.75840055231032411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="C3" s="17">
+        <v>0.54120114896816651</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.82670710174657702</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.42706247757273119</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.77985210346959044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.38353969033487628</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.76537808452999556</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.33910446681988721</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.75125558221205513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="C4" s="17">
+        <v>0.44908135032171093</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.78387368145830372</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.41357846102994139</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.77335227868741574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.80073835272318683</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.93609752499128718</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.79557797887738069</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.93654915853719933</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="17">
+        <v>0.79614639828603706</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.93018876963063835</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.80949485231501761</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.93716770413693551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
-        <v>-0.24831728029450209</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.34396479162122578</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-0.28427958372198447</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.31889729710753589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="16">
+        <v>-0.39314071199318512</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.1610485221006436</v>
+      </c>
+      <c r="E6" s="16">
+        <v>-0.48848004018710561</v>
+      </c>
+      <c r="F6" s="16">
+        <v>5.4578253661157518E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.61284627876751707</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.92356929980424718</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.72281856846049786</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.95073927644491463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="C7" s="17">
+        <v>0.74393673685886252</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.9149383634146947</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.72098064628756331</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.90959116061526402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
-        <v>-0.40771735271253517</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.43531783015390318</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.32982382187253401</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.5250347547853097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="C8" s="17">
+        <v>-0.4090596496719956</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.16187642342231029</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-0.47076849090966438</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.104032064882951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.80822578347438423</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.96549523338556098</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.85351950079911432</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.97549606734934124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="17">
+        <v>0.84612885639316648</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.95081047431115762</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.87092204489840275</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.96050193538153072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7">
-        <v>-0.65458851507736582</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.1155062376519774</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-0.50869920713538308</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.34954269569668739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="16">
+        <v>-0.5628008741608429</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-3.9108729983038791E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>-0.69659987711522564</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-0.2403989517987839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.45984742391455408</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.88982206190903723</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.69851699299237813</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.93175974063811917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="C11" s="17">
+        <v>0.4804391578490057</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.86365546711089947</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.66109392181980298</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.92195881387874845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
-        <v>-0.1633784599932166</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.64054477103136831</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.33652138303826901</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.42764655770496102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="C12" s="17">
+        <v>-0.1221383685298045</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.5791938787513865</v>
+      </c>
+      <c r="E12" s="17">
+        <v>-0.2367249429065747</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.51232389254760846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.79425422184798122</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.96450518820378728</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.77071072106347693</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.9497529765877325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6" t="s">
+      <c r="C13" s="17">
+        <v>0.79988983502198285</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.95469679994460321</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.80117918205419636</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.95700756360561468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
-        <v>-0.54836923755730416</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.32273163394476612</v>
-      </c>
-      <c r="E14" s="7">
-        <v>-0.63030509196668871</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6.5162757985975969E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="16">
+        <v>-0.69530858308670307</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-5.7928692931318748E-2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>-0.60622586872322437</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.10386890219284491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10">
-        <v>0.72632668182977755</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.92534058835245547</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.65812012348342663</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.90770918164705994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="C15" s="17">
+        <v>0.75002325117365332</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.92553881374467095</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.71735767657317295</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.91779029885457508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
-        <v>-0.57809685116562859</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4.4423979439358927E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-0.54827485091831007</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.1085262610174349</v>
+      <c r="C16" s="17">
+        <v>-0.59437012608683026</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-3.105314377143524E-2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>-0.57199158387822946</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2.2166324370986919E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.91993704542502652</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.97980542782795754</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.91544467785859562</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.97949711446971643</v>
+      <c r="C17" s="17">
+        <v>0.94188469338697989</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.98392634962683034</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.93049092905980157</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.98141787792263646</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
-        <v>-0.33541034074142018</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.34092670254579099</v>
-      </c>
-      <c r="E18" s="7">
-        <v>-0.38703595414753339</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.30639104556114072</v>
+      <c r="C18" s="16">
+        <v>-0.71677184540786476</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-0.24269966972809309</v>
+      </c>
+      <c r="E18" s="16">
+        <v>-0.74950369229189295</v>
+      </c>
+      <c r="F18" s="16">
+        <v>-0.2905563306228196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1144,451 +1116,446 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420731C-1938-415E-A63A-6CFABA38842A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.48452723711856011</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.80483772532473008</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.36389018827240138</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.7735268825271282</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.25391119463861589</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.80104970458541347</v>
+      <c r="C3" s="17">
+        <v>0.53797682681865922</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.82643597204789698</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.39330999151477097</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.79308082898157095</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.25350331730369091</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.8222509368122447</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.40118250584205289</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.75737680251882966</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.33514123667750162</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.76100174862001668</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.34025660787481099</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.79371078052308297</v>
+      <c r="C4" s="17">
+        <v>0.46688998285544397</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.77937809770773891</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.42149561797340318</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.76822830776399575</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.41868857516678709</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.80110799386053755</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.82170923845325472</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.93417630419790365</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.78384248731016226</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.93548545605339739</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.7504206115337998</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.94951860395220389</v>
+      <c r="C5" s="15">
+        <v>0.81867613241722803</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.92404530517580263</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.80947842606436782</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.9278716810021459</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.79705815147158454</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.95105701785879326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
-        <v>-0.19930381567468861</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.26770413192793269</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-0.28295898575698059</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.2739417280065351</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-0.27566946004227838</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.34085204893458459</v>
+      <c r="C6" s="16">
+        <v>-0.40029546634515722</v>
+      </c>
+      <c r="D6" s="16">
+        <v>7.3359960886334064E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>-0.48486292774381401</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2.7831441502250281E-2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>-0.46124934196466799</v>
+      </c>
+      <c r="H6" s="16">
+        <v>7.6714114037062145E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.61782920487395399</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.89293492016206599</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.71510224601019134</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.95232282056268813</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.65240681167496817</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.94987204848984919</v>
+      <c r="C7" s="15">
+        <v>0.73731000597458596</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.92002800443911714</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.71027349248472316</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.9160909218456047</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.60746803990083587</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.90531503034524208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>-0.13684689275259099</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.6521690185453437</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-0.33492860285266768</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.54548560778629107</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-0.33335082456962228</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.58002483261265392</v>
+      <c r="C8" s="15">
+        <v>-0.41158204371856549</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.1630749112251931</v>
+      </c>
+      <c r="E8" s="15">
+        <v>-0.4860484426294433</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.1062404536377087</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-0.50667068970399087</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.10952353927129049</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.82605289537070081</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.96873269106396942</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.8234774989520961</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.97080155996907702</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.79586864049558248</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.97397161834791757</v>
+      <c r="C9" s="15">
+        <v>0.87203265290408405</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.94829099611159096</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.85905141515428907</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.95981533145056908</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.83760775062271065</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.95942832968121017</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7">
-        <v>-0.54431426898467083</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.25195388281108372</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-0.55160286832707395</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.35787706605290992</v>
-      </c>
-      <c r="G10" s="7">
-        <v>-0.66459979734816743</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.41878475470182808</v>
+      <c r="C10" s="16">
+        <v>-0.55288537271975835</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-6.4731915084470376E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>-0.69213543588372983</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-0.23761650956592081</v>
+      </c>
+      <c r="G10" s="16">
+        <v>-0.68120814428871634</v>
+      </c>
+      <c r="H10" s="16">
+        <v>-9.6699847156626842E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.77168998845746384</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.95646192966086374</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.66070099554052786</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.96035844161513817</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.57445644322604528</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.94813040460905962</v>
+      <c r="C11" s="15">
+        <v>0.57775904948429335</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.84710743010750655</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.65820012955006313</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.91510192800028733</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.60361714203986072</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.92168409035159227</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>-0.37963310557708241</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.43412959086574399</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-0.35748992840343641</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.431617647392255</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-0.42180117337840772</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.4395085654189273</v>
+      <c r="C12" s="15">
+        <v>-7.7774106855620612E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.57247439165181713</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-0.17817056674449791</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.49428193242804591</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-0.1691167300850358</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.56154871098697723</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.81994183805723164</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.9459926922064481</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.75863719940482</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.95193775972568662</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.74376255271613823</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.95790268328714878</v>
+      <c r="C13" s="15">
+        <v>0.80297734298930246</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.95293936043485949</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.78721213283419156</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.95683029514334539</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.75436652257728976</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.96069460733274403</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7">
-        <v>-0.57420079813086711</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-2.394928996519248E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>-0.64179170606968095</v>
-      </c>
-      <c r="F14" s="7">
-        <v>7.8289489643561944E-2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-0.71865890511223873</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.13332217949219169</v>
+      <c r="C14" s="16">
+        <v>-0.67565912059463318</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-0.1328445160784204</v>
+      </c>
+      <c r="E14" s="16">
+        <v>-0.64079781467966945</v>
+      </c>
+      <c r="F14" s="16">
+        <v>9.7262946868430775E-2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>-0.71877661395092374</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2.7854704113172039E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.77906904598559601</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.91773351353840571</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.6621876868307085</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.89241458417300845</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.77438165128649727</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.94598032594595094</v>
+      <c r="C15" s="15">
+        <v>0.78796826182368962</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.92316715818834549</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.70960178664935203</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.91111225051184874</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.78320796310690455</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.93729884463783053</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
-        <v>-0.58795817924729599</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.718021569224634E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-0.55306920998123987</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.1527404569879989</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-0.57150606881917043</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.17431710222317379</v>
+      <c r="C16" s="15">
+        <v>-0.61032667094116211</v>
+      </c>
+      <c r="D16" s="15">
+        <v>-2.4330307053429971E-2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>-0.59705586425042212</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2.2147321877623291E-2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-0.62819096013994835</v>
+      </c>
+      <c r="H16" s="15">
+        <v>5.5379743725478187E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.93756314663882712</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.9803719329960302</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.90285039876140583</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.97827114851749197</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.91944873219237777</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.98798356661114084</v>
+      <c r="C17" s="15">
+        <v>0.94955457374633889</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.98270583314086646</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.91642371729210881</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.98094149694858923</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.92903992134039426</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.98567475487383971</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
-        <v>-0.38006890302312363</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.34169192299886791</v>
-      </c>
-      <c r="E18" s="7">
-        <v>-0.39255572620075552</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.32041485171115958</v>
-      </c>
-      <c r="G18" s="7">
-        <v>-0.46169196340833751</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.27086217858561112</v>
+      <c r="C18" s="16">
+        <v>-0.75393982105074575</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-0.36474045965001589</v>
+      </c>
+      <c r="E18" s="16">
+        <v>-0.76470571791776776</v>
+      </c>
+      <c r="F18" s="16">
+        <v>-0.25834635639508102</v>
+      </c>
+      <c r="G18" s="16">
+        <v>-0.82427510861504605</v>
+      </c>
+      <c r="H18" s="16">
+        <v>-0.26952482490369639</v>
       </c>
     </row>
   </sheetData>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\II-2023\Estadistica I, CA0303\Proyecto\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2FA70-A956-4320-9258-AEBA3B537A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38CE27-626D-49AE-8B74-C8691FB51287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coeficientes" sheetId="2" r:id="rId1"/>
@@ -85,8 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -170,10 +171,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -185,12 +188,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,26 +521,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -762,24 +764,25 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F18"/>
+      <selection activeCell="A11" sqref="A11:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="16"/>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -804,7 +807,7 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -824,7 +827,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -842,7 +845,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -860,25 +863,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>-0.39314071199318512</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>0.1610485221006436</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="18">
         <v>-0.48848004018710561</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="18">
         <v>5.4578253661157518E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -898,7 +901,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -916,7 +919,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -934,25 +937,25 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="18">
         <v>-0.5628008741608429</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="18">
         <v>-3.9108729983038791E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="18">
         <v>-0.69659987711522564</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="18">
         <v>-0.2403989517987839</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -965,14 +968,14 @@
         <v>0.86365546711089947</v>
       </c>
       <c r="E11" s="17">
-        <v>0.66109392181980298</v>
+        <v>0.66548320324478238</v>
       </c>
       <c r="F11" s="17">
-        <v>0.92195881387874845</v>
+        <v>0.92077473235620677</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -983,14 +986,14 @@
         <v>0.5791938787513865</v>
       </c>
       <c r="E12" s="17">
-        <v>-0.2367249429065747</v>
+        <v>-0.22931312234610449</v>
       </c>
       <c r="F12" s="17">
-        <v>0.51232389254760846</v>
+        <v>0.5065204216544178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1001,32 +1004,32 @@
         <v>0.95469679994460321</v>
       </c>
       <c r="E13" s="17">
-        <v>0.80117918205419636</v>
+        <v>0.80396828514180274</v>
       </c>
       <c r="F13" s="17">
-        <v>0.95700756360561468</v>
+        <v>0.95634318076541991</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="18">
         <v>-0.69530858308670307</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="18">
         <v>-5.7928692931318748E-2</v>
       </c>
-      <c r="E14" s="16">
-        <v>-0.60622586872322437</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.10386890219284491</v>
+      <c r="E14" s="18">
+        <v>-0.60124521514991813</v>
+      </c>
+      <c r="F14" s="18">
+        <v>9.6109880789260499E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1046,7 +1049,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1067,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1082,31 +1085,31 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="18">
         <v>-0.71677184540786476</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="18">
         <v>-0.24269966972809309</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="18">
         <v>-0.74950369229189295</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="18">
         <v>-0.2905563306228196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420731C-1938-415E-A63A-6CFABA38842A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H18"/>
+    <sheetView showGridLines="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,18 +1130,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1147,414 +1150,414 @@
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <v>0.53797682681865922</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="10">
         <v>0.82643597204789698</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <v>0.39330999151477097</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="10">
         <v>0.79308082898157095</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="10">
         <v>0.25350331730369091</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="10">
         <v>0.8222509368122447</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="10">
         <v>0.46688998285544397</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="10">
         <v>0.77937809770773891</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <v>0.42149561797340318</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="10">
         <v>0.76822830776399575</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="10">
         <v>0.41868857516678709</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="10">
         <v>0.80110799386053755</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>0.81867613241722803</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>0.92404530517580263</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>0.80947842606436782</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>0.9278716810021459</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>0.79705815147158454</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>0.95105701785879326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>-0.40029546634515722</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>7.3359960886334064E-2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>-0.48486292774381401</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="11">
         <v>2.7831441502250281E-2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>-0.46124934196466799</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>7.6714114037062145E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>0.73731000597458596</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>0.92002800443911714</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>0.71027349248472316</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="10">
         <v>0.9160909218456047</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <v>0.60746803990083587</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <v>0.90531503034524208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>-0.41158204371856549</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>0.1630749112251931</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>-0.4860484426294433</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>0.1062404536377087</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <v>-0.50667068970399087</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>0.10952353927129049</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>0.87203265290408405</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>0.94829099611159096</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>0.85905141515428907</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <v>0.95981533145056908</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>0.83760775062271065</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <v>0.95942832968121017</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>-0.55288537271975835</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>-6.4731915084470376E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>-0.69213543588372983</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="11">
         <v>-0.23761650956592081</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>-0.68120814428871634</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="11">
         <v>-9.6699847156626842E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>0.57775904948429335</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>0.84710743010750655</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <v>0.65820012955006313</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="10">
         <v>0.91510192800028733</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <v>0.60361714203986072</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="10">
         <v>0.92168409035159227</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>-7.7774106855620612E-2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>0.57247439165181713</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <v>-0.17817056674449791</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="10">
         <v>0.49428193242804591</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="10">
         <v>-0.1691167300850358</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <v>0.56154871098697723</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <v>0.80297734298930246</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>0.95293936043485949</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>0.78721213283419156</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="10">
         <v>0.95683029514334539</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="10">
         <v>0.75436652257728976</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="10">
         <v>0.96069460733274403</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>-0.67565912059463318</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <v>-0.1328445160784204</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="11">
         <v>-0.64079781467966945</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="11">
         <v>9.7262946868430775E-2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="11">
         <v>-0.71877661395092374</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="11">
         <v>2.7854704113172039E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <v>0.78796826182368962</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <v>0.92316715818834549</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <v>0.70960178664935203</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="10">
         <v>0.91111225051184874</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="10">
         <v>0.78320796310690455</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <v>0.93729884463783053</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>-0.61032667094116211</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="10">
         <v>-2.4330307053429971E-2</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="10">
         <v>-0.59705586425042212</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="10">
         <v>2.2147321877623291E-2</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="10">
         <v>-0.62819096013994835</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="10">
         <v>5.5379743725478187E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>0.94955457374633889</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="10">
         <v>0.98270583314086646</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>0.91642371729210881</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="10">
         <v>0.98094149694858923</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="10">
         <v>0.92903992134039426</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="10">
         <v>0.98567475487383971</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="11">
         <v>-0.75393982105074575</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="11">
         <v>-0.36474045965001589</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="11">
         <v>-0.76470571791776776</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="11">
         <v>-0.25834635639508102</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <v>-0.82427510861504605</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="11">
         <v>-0.26952482490369639</v>
       </c>
     </row>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana\Desktop\II-2023\Estadistica I, CA0303\Proyecto\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC38CE27-626D-49AE-8B74-C8691FB51287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94DA1F6-1709-46D2-B47B-235C6965720B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coeficientes" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,7 +176,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -188,11 +193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,26 +521,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9E104-E558-4ED6-9E6E-95256949977C}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F14"/>
     </sheetView>
   </sheetViews>
@@ -775,14 +775,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="15"/>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -807,298 +807,298 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>0.54120114896816651</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>0.82670710174657702</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>0.42706247757273119</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>0.77985210346959044</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>0.44908135032171093</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>0.78387368145830372</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>0.41357846102994139</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>0.77335227868741574</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>0.79614639828603706</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <v>0.93018876963063835</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>0.80949485231501761</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>0.93716770413693551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="13">
         <v>-0.39314071199318512</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>0.1610485221006436</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="13">
         <v>-0.48848004018710561</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>5.4578253661157518E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>0.74393673685886252</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>0.9149383634146947</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>0.72098064628756331</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>0.90959116061526402</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>-0.4090596496719956</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>0.16187642342231029</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>-0.47076849090966438</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>0.104032064882951</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>0.84612885639316648</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <v>0.95081047431115762</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <v>0.87092204489840275</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>0.96050193538153072</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>-0.5628008741608429</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>-3.9108729983038791E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <v>-0.69659987711522564</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>-0.2403989517987839</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>0.4804391578490057</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="12">
         <v>0.86365546711089947</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <v>0.66548320324478238</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <v>0.92077473235620677</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <v>-0.1221383685298045</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <v>0.5791938787513865</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <v>-0.22931312234610449</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <v>0.5065204216544178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>0.79988983502198285</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="12">
         <v>0.95469679994460321</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="12">
         <v>0.80396828514180274</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <v>0.95634318076541991</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="13">
         <v>-0.69530858308670307</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="13">
         <v>-5.7928692931318748E-2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="13">
         <v>-0.60124521514991813</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="13">
         <v>9.6109880789260499E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>0.75002325117365332</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <v>0.92553881374467095</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>0.71735767657317295</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>0.91779029885457508</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>-0.59437012608683026</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <v>-3.105314377143524E-2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>-0.57199158387822946</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>2.2166324370986919E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>0.94188469338697989</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="12">
         <v>0.98392634962683034</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>0.93049092905980157</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>0.98141787792263646</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="13">
         <v>-0.71677184540786476</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <v>-0.24269966972809309</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="13">
         <v>-0.74950369229189295</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <v>-0.2905563306228196</v>
       </c>
     </row>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1420731C-1938-415E-A63A-6CFABA38842A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,18 +1130,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1170,395 +1170,395 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="10">
-        <v>0.53797682681865922</v>
+        <v>0.55860154598594836</v>
       </c>
       <c r="D3" s="10">
-        <v>0.82643597204789698</v>
+        <v>0.83030832532475818</v>
       </c>
       <c r="E3" s="10">
-        <v>0.39330999151477097</v>
+        <v>0.36211298483524212</v>
       </c>
       <c r="F3" s="10">
-        <v>0.79308082898157095</v>
+        <v>0.78645957436509184</v>
       </c>
       <c r="G3" s="10">
-        <v>0.25350331730369091</v>
+        <v>0.2628406440521005</v>
       </c>
       <c r="H3" s="10">
-        <v>0.8222509368122447</v>
+        <v>0.81079765970538764</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="10">
-        <v>0.46688998285544397</v>
+        <v>0.46387986277860688</v>
       </c>
       <c r="D4" s="10">
-        <v>0.77937809770773891</v>
+        <v>0.79408746192516433</v>
       </c>
       <c r="E4" s="10">
-        <v>0.42149561797340318</v>
+        <v>0.41614804162129471</v>
       </c>
       <c r="F4" s="10">
-        <v>0.76822830776399575</v>
+        <v>0.77303422802712396</v>
       </c>
       <c r="G4" s="10">
-        <v>0.41868857516678709</v>
+        <v>0.40952846945208282</v>
       </c>
       <c r="H4" s="10">
-        <v>0.80110799386053755</v>
+        <v>0.79826733037020225</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="10">
-        <v>0.81867613241722803</v>
+        <v>0.81685490941388283</v>
       </c>
       <c r="D5" s="10">
-        <v>0.92404530517580263</v>
+        <v>0.92466064709026818</v>
       </c>
       <c r="E5" s="10">
-        <v>0.80947842606436782</v>
+        <v>0.80886862670632032</v>
       </c>
       <c r="F5" s="10">
-        <v>0.9278716810021459</v>
+        <v>0.92794970924068454</v>
       </c>
       <c r="G5" s="10">
-        <v>0.79705815147158454</v>
+        <v>0.78933403273355496</v>
       </c>
       <c r="H5" s="10">
-        <v>0.95105701785879326</v>
+        <v>0.95063808109425851</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="11">
-        <v>-0.40029546634515722</v>
+        <v>-0.40062468504781418</v>
       </c>
       <c r="D6" s="11">
-        <v>7.3359960886334064E-2</v>
+        <v>6.7399826627732584E-2</v>
       </c>
       <c r="E6" s="11">
-        <v>-0.48486292774381401</v>
+        <v>-0.48977038582822691</v>
       </c>
       <c r="F6" s="11">
-        <v>2.7831441502250281E-2</v>
+        <v>3.4013986973734152E-2</v>
       </c>
       <c r="G6" s="11">
-        <v>-0.46124934196466799</v>
+        <v>-0.47084250211673739</v>
       </c>
       <c r="H6" s="11">
-        <v>7.6714114037062145E-2</v>
+        <v>9.2155783474504052E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
+      <c r="A7" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="10">
-        <v>0.73731000597458596</v>
+        <v>0.55405963810730974</v>
       </c>
       <c r="D7" s="10">
-        <v>0.92002800443911714</v>
+        <v>0.85451546683882862</v>
       </c>
       <c r="E7" s="10">
-        <v>0.71027349248472316</v>
+        <v>0.65980121142378212</v>
       </c>
       <c r="F7" s="10">
-        <v>0.9160909218456047</v>
+        <v>0.91783489071459723</v>
       </c>
       <c r="G7" s="10">
-        <v>0.60746803990083587</v>
+        <v>0.60904671986258641</v>
       </c>
       <c r="H7" s="10">
-        <v>0.90531503034524208</v>
+        <v>0.92136980345729713</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="10">
-        <v>-0.41158204371856549</v>
+        <v>-5.088558399310443E-2</v>
       </c>
       <c r="D8" s="10">
-        <v>0.1630749112251931</v>
+        <v>0.56474179119031398</v>
       </c>
       <c r="E8" s="10">
-        <v>-0.4860484426294433</v>
+        <v>-0.20599914622260029</v>
       </c>
       <c r="F8" s="10">
-        <v>0.1062404536377087</v>
+        <v>0.55481460122947523</v>
       </c>
       <c r="G8" s="10">
-        <v>-0.50667068970399087</v>
+        <v>-0.1228469155519064</v>
       </c>
       <c r="H8" s="10">
-        <v>0.10952353927129049</v>
+        <v>0.56027244556586531</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="10">
-        <v>0.87203265290408405</v>
+        <v>0.81670189946230121</v>
       </c>
       <c r="D9" s="10">
-        <v>0.94829099611159096</v>
+        <v>0.95281087035286838</v>
       </c>
       <c r="E9" s="10">
-        <v>0.85905141515428907</v>
+        <v>0.78837711176147185</v>
       </c>
       <c r="F9" s="10">
-        <v>0.95981533145056908</v>
+        <v>0.95178916014488413</v>
       </c>
       <c r="G9" s="10">
-        <v>0.83760775062271065</v>
+        <v>0.78192553416625188</v>
       </c>
       <c r="H9" s="10">
-        <v>0.95942832968121017</v>
+        <v>0.96061800411725917</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="11">
-        <v>-0.55288537271975835</v>
+        <v>-0.67840886447175563</v>
       </c>
       <c r="D10" s="11">
-        <v>-6.4731915084470376E-2</v>
+        <v>-0.15609765581331361</v>
       </c>
       <c r="E10" s="11">
-        <v>-0.69213543588372983</v>
+        <v>-0.63579011497167981</v>
       </c>
       <c r="F10" s="11">
-        <v>-0.23761650956592081</v>
+        <v>4.773674526604104E-2</v>
       </c>
       <c r="G10" s="11">
-        <v>-0.68120814428871634</v>
+        <v>-0.71276400589629074</v>
       </c>
       <c r="H10" s="11">
-        <v>-9.6699847156626842E-2</v>
+        <v>4.2710129635301082E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>11</v>
+      <c r="A11" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="10">
-        <v>0.57775904948429335</v>
+        <v>0.73150240043691495</v>
       </c>
       <c r="D11" s="10">
-        <v>0.84710743010750655</v>
+        <v>0.9183532878927112</v>
       </c>
       <c r="E11" s="10">
-        <v>0.65820012955006313</v>
+        <v>0.69909515366975683</v>
       </c>
       <c r="F11" s="10">
-        <v>0.91510192800028733</v>
+        <v>0.9218756348528504</v>
       </c>
       <c r="G11" s="10">
-        <v>0.60361714203986072</v>
+        <v>0.65340836705434158</v>
       </c>
       <c r="H11" s="10">
-        <v>0.92168409035159227</v>
+        <v>0.90743985751491596</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="10">
-        <v>-7.7774106855620612E-2</v>
+        <v>-0.39780850476286522</v>
       </c>
       <c r="D12" s="10">
-        <v>0.57247439165181713</v>
+        <v>0.17405175480997279</v>
       </c>
       <c r="E12" s="10">
-        <v>-0.17817056674449791</v>
+        <v>-0.47187925444511869</v>
       </c>
       <c r="F12" s="10">
-        <v>0.49428193242804591</v>
+        <v>8.6575972205602147E-2</v>
       </c>
       <c r="G12" s="10">
-        <v>-0.1691167300850358</v>
+        <v>-0.50019099267000511</v>
       </c>
       <c r="H12" s="10">
-        <v>0.56154871098697723</v>
+        <v>0.10748681931772459</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="10">
-        <v>0.80297734298930246</v>
+        <v>0.87189787354920578</v>
       </c>
       <c r="D13" s="10">
-        <v>0.95293936043485949</v>
+        <v>0.9481756604826348</v>
       </c>
       <c r="E13" s="10">
-        <v>0.78721213283419156</v>
+        <v>0.86082139906708399</v>
       </c>
       <c r="F13" s="10">
-        <v>0.95683029514334539</v>
+        <v>0.95691675125240905</v>
       </c>
       <c r="G13" s="10">
-        <v>0.75436652257728976</v>
+        <v>0.8366416416980893</v>
       </c>
       <c r="H13" s="10">
-        <v>0.96069460733274403</v>
+        <v>0.95932726910590527</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="11">
-        <v>-0.67565912059463318</v>
+        <v>-0.53476687736360751</v>
       </c>
       <c r="D14" s="11">
-        <v>-0.1328445160784204</v>
+        <v>-7.8968631282786209E-2</v>
       </c>
       <c r="E14" s="11">
-        <v>-0.64079781467966945</v>
+        <v>-0.70329964215260787</v>
       </c>
       <c r="F14" s="11">
-        <v>9.7262946868430775E-2</v>
+        <v>-0.2428742087432004</v>
       </c>
       <c r="G14" s="11">
-        <v>-0.71877661395092374</v>
+        <v>-0.68666468746414377</v>
       </c>
       <c r="H14" s="11">
-        <v>2.7854704113172039E-2</v>
+        <v>-9.6178814930248838E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10">
-        <v>0.78796826182368962</v>
+        <v>0.78861205292586434</v>
       </c>
       <c r="D15" s="10">
-        <v>0.92316715818834549</v>
+        <v>0.9221747219838804</v>
       </c>
       <c r="E15" s="10">
-        <v>0.70960178664935203</v>
+        <v>0.73211085019485167</v>
       </c>
       <c r="F15" s="10">
-        <v>0.91111225051184874</v>
+        <v>0.9091250597417414</v>
       </c>
       <c r="G15" s="10">
-        <v>0.78320796310690455</v>
+        <v>0.78699433313416745</v>
       </c>
       <c r="H15" s="10">
-        <v>0.93729884463783053</v>
+        <v>0.93816641603499684</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="10">
-        <v>-0.61032667094116211</v>
+        <v>-0.6033919670014356</v>
       </c>
       <c r="D16" s="10">
-        <v>-2.4330307053429971E-2</v>
+        <v>-3.0574682348212461E-2</v>
       </c>
       <c r="E16" s="10">
-        <v>-0.59705586425042212</v>
+        <v>-0.59150162833991615</v>
       </c>
       <c r="F16" s="10">
-        <v>2.2147321877623291E-2</v>
+        <v>1.9941660324943069E-2</v>
       </c>
       <c r="G16" s="10">
-        <v>-0.62819096013994835</v>
+        <v>-0.61760278431105264</v>
       </c>
       <c r="H16" s="10">
-        <v>5.5379743725478187E-2</v>
+        <v>3.4207899847111201E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="10">
-        <v>0.94955457374633889</v>
+        <v>0.94988977106277961</v>
       </c>
       <c r="D17" s="10">
-        <v>0.98270583314086646</v>
+        <v>0.98341749236867049</v>
       </c>
       <c r="E17" s="10">
-        <v>0.91642371729210881</v>
+        <v>0.91836344790572755</v>
       </c>
       <c r="F17" s="10">
-        <v>0.98094149694858923</v>
+        <v>0.98022265354360061</v>
       </c>
       <c r="G17" s="10">
-        <v>0.92903992134039426</v>
+        <v>0.92076635185838462</v>
       </c>
       <c r="H17" s="10">
-        <v>0.98567475487383971</v>
+        <v>0.98570893428428996</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11">
-        <v>-0.75393982105074575</v>
+        <v>-0.76095370059308509</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.36474045965001589</v>
+        <v>-0.35834891941122748</v>
       </c>
       <c r="E18" s="11">
-        <v>-0.76470571791776776</v>
+        <v>-0.76382593652262798</v>
       </c>
       <c r="F18" s="11">
-        <v>-0.25834635639508102</v>
+        <v>-0.27354228492744792</v>
       </c>
       <c r="G18" s="11">
-        <v>-0.82427510861504605</v>
+        <v>-0.82697710946480152</v>
       </c>
       <c r="H18" s="11">
-        <v>-0.26952482490369639</v>
+        <v>-0.26161401640239218</v>
       </c>
     </row>
   </sheetData>
